--- a/screening/screening_review_done.xlsx
+++ b/screening/screening_review_done.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hoffmanka/Documents/dev/smart-on-fhir-literature-research/smart-on-fhir-literature-analysis/screening/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF28D71-9A5E-D547-89AF-DD63583C9FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A82CFE5-929A-4743-8638-62521EC51E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="7980" windowWidth="29400" windowHeight="9500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="800">
   <si>
     <t>id</t>
   </si>
@@ -2362,13 +2362,64 @@
     <t>Decision Making, Computer-Assisted; Humans; Machine Learning; Male; Medical Informatics; Medical Records Systems, Computerized; Melanoma; Middle Aged; Skin Neoplasms; Workflow; cancer prognosis; clinical decision making; clinical evaluation; clinical practice; data processing; electronic health record; health care availability; health care quality; health care system; human; machine learning; medical decision making; melanoma; patient care; priority journal; rash; Review; supervised machine learning; treatment planning; tumor biopsy; tumor invasion; workflow; decision support system; electronic medical record system; male; medical informatics; melanoma; middle aged; skin tumor</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
     <t>Reason</t>
   </si>
   <si>
     <t>no technological concepts, interoperability frameworks, or FHIR/SMART on FHIR standard</t>
+  </si>
+  <si>
+    <t>SMART on FHIR, but no reference implementation</t>
+  </si>
+  <si>
+    <t>no technologica concept, reference implementation, software architecture</t>
+  </si>
+  <si>
+    <t>not SMART on FHIR, only once mentioned in article</t>
+  </si>
+  <si>
+    <t>0/1</t>
+  </si>
+  <si>
+    <t>only once mentioned</t>
+  </si>
+  <si>
+    <t>Full-text screening</t>
+  </si>
+  <si>
+    <t>no SMART on FHIR, reference implementation</t>
+  </si>
+  <si>
+    <t>no reference implementation, infrastructure</t>
+  </si>
+  <si>
+    <t>no SMART on FHIR, Focus on blockchain</t>
+  </si>
+  <si>
+    <t>no reference implementation, infrastructure, but something about SMART</t>
+  </si>
+  <si>
+    <t>only mentioned, no test implementations</t>
+  </si>
+  <si>
+    <t>only mentioned once</t>
+  </si>
+  <si>
+    <t>no access</t>
+  </si>
+  <si>
+    <t>OMOP and not FHIR</t>
+  </si>
+  <si>
+    <t>just mentioned SMART once</t>
+  </si>
+  <si>
+    <t>further excluded</t>
+  </si>
+  <si>
+    <t>without reference implementations</t>
+  </si>
+  <si>
+    <t>Included</t>
   </si>
 </sst>
 </file>
@@ -2390,7 +2441,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2406,6 +2457,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2448,7 +2505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2458,6 +2515,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2760,19 +2821,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S115"/>
+  <dimension ref="A1:U115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C114" sqref="C114"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="18" max="18" width="8.83203125" style="3"/>
     <col min="19" max="19" width="70.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="70.1640625" style="6" customWidth="1"/>
+    <col min="21" max="21" width="26.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2825,13 +2888,19 @@
         <v>16</v>
       </c>
       <c r="R1" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T1" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>59</v>
       </c>
@@ -2875,10 +2944,10 @@
         <v>0</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>60</v>
       </c>
@@ -2921,8 +2990,14 @@
       <c r="Q3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R3" s="3">
+        <v>0</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>61</v>
       </c>
@@ -2965,8 +3040,14 @@
       <c r="Q4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R4" s="3">
+        <v>0</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>62</v>
       </c>
@@ -3006,8 +3087,14 @@
       <c r="Q5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R5" s="3">
+        <v>0</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>63</v>
       </c>
@@ -3047,8 +3134,14 @@
       <c r="P6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R6" s="3">
+        <v>0</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>64</v>
       </c>
@@ -3085,8 +3178,14 @@
       <c r="P7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R7" s="3">
+        <v>0</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>65</v>
       </c>
@@ -3126,8 +3225,11 @@
       <c r="Q8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>66</v>
       </c>
@@ -3170,8 +3272,14 @@
       <c r="Q9" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>67</v>
       </c>
@@ -3211,8 +3319,14 @@
       <c r="P10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>68</v>
       </c>
@@ -3252,8 +3366,14 @@
       <c r="Q11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R11" s="3">
+        <v>0</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>69</v>
       </c>
@@ -3296,8 +3416,14 @@
       <c r="Q12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>70</v>
       </c>
@@ -3337,8 +3463,14 @@
       <c r="Q13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>71</v>
       </c>
@@ -3381,8 +3513,17 @@
       <c r="Q14" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>1</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>786</v>
+      </c>
+      <c r="U14" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>72</v>
       </c>
@@ -3422,8 +3563,14 @@
       <c r="P15" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>73</v>
       </c>
@@ -3466,8 +3613,14 @@
       <c r="Q16" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>74</v>
       </c>
@@ -3507,8 +3660,14 @@
       <c r="Q17" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>75</v>
       </c>
@@ -3548,8 +3707,14 @@
       <c r="Q18" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>76</v>
       </c>
@@ -3589,8 +3754,14 @@
       <c r="Q19" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3">
+        <v>0</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>77</v>
       </c>
@@ -3630,8 +3801,14 @@
       <c r="Q20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>78</v>
       </c>
@@ -3671,8 +3848,14 @@
       <c r="Q21" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>79</v>
       </c>
@@ -3715,8 +3898,14 @@
       <c r="Q22" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>80</v>
       </c>
@@ -3759,8 +3948,14 @@
       <c r="Q23" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>81</v>
       </c>
@@ -3800,8 +3995,14 @@
       <c r="P24" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>82</v>
       </c>
@@ -3841,8 +4042,14 @@
       <c r="P25" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>83</v>
       </c>
@@ -3882,8 +4089,14 @@
       <c r="P26" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>84</v>
       </c>
@@ -3924,7 +4137,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>85</v>
       </c>
@@ -3968,7 +4181,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>86</v>
       </c>
@@ -4009,7 +4222,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>87</v>
       </c>
@@ -4050,7 +4263,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>88</v>
       </c>
@@ -4094,7 +4307,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>89</v>
       </c>
@@ -5489,7 +5702,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>122</v>
       </c>
@@ -5530,7 +5743,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>123</v>
       </c>
@@ -5574,7 +5787,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>124</v>
       </c>
@@ -5618,7 +5831,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>125</v>
       </c>
@@ -5662,7 +5875,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>126</v>
       </c>
@@ -5706,7 +5919,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>127</v>
       </c>
@@ -5750,7 +5963,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>128</v>
       </c>
@@ -5791,7 +6004,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>129</v>
       </c>
@@ -5835,7 +6048,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>130</v>
       </c>
@@ -5875,8 +6088,14 @@
       <c r="Q73" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>131</v>
       </c>
@@ -5913,8 +6132,14 @@
       <c r="P74" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>132</v>
       </c>
@@ -5954,8 +6179,20 @@
       <c r="Q75" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="T75" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="U75" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>133</v>
       </c>
@@ -5995,8 +6232,14 @@
       <c r="Q76" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>0</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>134</v>
       </c>
@@ -6033,8 +6276,14 @@
       <c r="P77" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>135</v>
       </c>
@@ -6077,8 +6326,14 @@
       <c r="Q78" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R78" s="3">
+        <v>0</v>
+      </c>
+      <c r="S78" s="3" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>136</v>
       </c>
@@ -6121,8 +6376,14 @@
       <c r="Q79" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R79" s="3">
+        <v>0</v>
+      </c>
+      <c r="S79" s="3" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>137</v>
       </c>
@@ -6165,8 +6426,14 @@
       <c r="Q80" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="3">
+        <v>0</v>
+      </c>
+      <c r="S80" s="3" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>138</v>
       </c>
@@ -6206,8 +6473,14 @@
       <c r="P81" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>139</v>
       </c>
@@ -6250,8 +6523,14 @@
       <c r="Q82" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3">
+        <v>0</v>
+      </c>
+      <c r="S82" s="3" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>140</v>
       </c>
@@ -6291,8 +6570,14 @@
       <c r="P83" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>141</v>
       </c>
@@ -6335,8 +6620,14 @@
       <c r="Q84" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>142</v>
       </c>
@@ -6373,8 +6664,17 @@
       <c r="P85" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>1</v>
+      </c>
+      <c r="T85" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="U85" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>143</v>
       </c>
@@ -6417,8 +6717,17 @@
       <c r="Q86" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>1</v>
+      </c>
+      <c r="T86" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="U86" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>144</v>
       </c>
@@ -6461,8 +6770,14 @@
       <c r="Q87" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>145</v>
       </c>
@@ -6505,8 +6820,17 @@
       <c r="Q88" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>1</v>
+      </c>
+      <c r="T88" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="U88" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>146</v>
       </c>
@@ -6549,8 +6873,17 @@
       <c r="Q89" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>1</v>
+      </c>
+      <c r="T89" s="6" t="s">
+        <v>793</v>
+      </c>
+      <c r="U89" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>147</v>
       </c>
@@ -6593,8 +6926,11 @@
       <c r="Q90" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>148</v>
       </c>
@@ -6634,8 +6970,14 @@
       <c r="Q91" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>149</v>
       </c>
@@ -6675,8 +7017,14 @@
       <c r="Q92" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>150</v>
       </c>
@@ -6719,8 +7067,14 @@
       <c r="Q93" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>151</v>
       </c>
@@ -6763,8 +7117,14 @@
       <c r="Q94" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>152</v>
       </c>
@@ -6807,8 +7167,14 @@
       <c r="Q95" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3">
+        <v>0</v>
+      </c>
+      <c r="S95" s="3" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>153</v>
       </c>
@@ -6848,8 +7214,17 @@
       <c r="Q96" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>1</v>
+      </c>
+      <c r="T96" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="U96" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>154</v>
       </c>
@@ -6889,8 +7264,14 @@
       <c r="Q97" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>155</v>
       </c>
@@ -6930,8 +7311,14 @@
       <c r="Q98" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>156</v>
       </c>
@@ -6974,8 +7361,14 @@
       <c r="Q99" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>157</v>
       </c>
@@ -7018,8 +7411,14 @@
       <c r="Q100" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>158</v>
       </c>
@@ -7062,8 +7461,14 @@
       <c r="Q101" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>159</v>
       </c>
@@ -7103,8 +7508,14 @@
       <c r="P102" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>160</v>
       </c>
@@ -7147,8 +7558,14 @@
       <c r="Q103" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R103" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="S103" s="3" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>161</v>
       </c>
@@ -7188,8 +7605,11 @@
       <c r="Q104" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R104" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>162</v>
       </c>
@@ -7229,8 +7649,14 @@
       <c r="Q105" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R105" s="3">
+        <v>0</v>
+      </c>
+      <c r="S105" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>163</v>
       </c>
@@ -7270,8 +7696,14 @@
       <c r="Q106" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R106" s="3">
+        <v>0</v>
+      </c>
+      <c r="S106" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>164</v>
       </c>
@@ -7311,8 +7743,14 @@
       <c r="Q107" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R107" s="3">
+        <v>0</v>
+      </c>
+      <c r="S107" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>165</v>
       </c>
@@ -7349,8 +7787,14 @@
       <c r="P108" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R108" s="3">
+        <v>0</v>
+      </c>
+      <c r="S108" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>166</v>
       </c>
@@ -7390,8 +7834,14 @@
       <c r="Q109" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R109" s="3">
+        <v>0</v>
+      </c>
+      <c r="S109" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>167</v>
       </c>
@@ -7428,8 +7878,14 @@
       <c r="P110" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R110" s="3">
+        <v>0</v>
+      </c>
+      <c r="S110" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>168</v>
       </c>
@@ -7472,8 +7928,14 @@
       <c r="Q111" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R111" s="3">
+        <v>0</v>
+      </c>
+      <c r="S111" s="3" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>169</v>
       </c>
@@ -7515,6 +7977,12 @@
       </c>
       <c r="Q112" t="s">
         <v>35</v>
+      </c>
+      <c r="R112" s="3">
+        <v>0</v>
+      </c>
+      <c r="S112" s="3" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.2">
@@ -7560,6 +8028,12 @@
       <c r="Q113" t="s">
         <v>35</v>
       </c>
+      <c r="R113" s="3">
+        <v>0</v>
+      </c>
+      <c r="S113" s="3" t="s">
+        <v>781</v>
+      </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A114">
@@ -7598,6 +8072,12 @@
       <c r="P114" t="s">
         <v>26</v>
       </c>
+      <c r="R114" s="3">
+        <v>0</v>
+      </c>
+      <c r="S114" s="4" t="s">
+        <v>781</v>
+      </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A115">
@@ -7640,7 +8120,7 @@
         <v>0</v>
       </c>
       <c r="S115" s="4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
   </sheetData>
